--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.263499999999993</v>
+        <v>-7.302099999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.010899999999998</v>
+        <v>5.070399999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.681000000000003</v>
+        <v>-7.653099999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.635100000000008</v>
+        <v>-8.618200000000014</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.691999999999997</v>
+        <v>-8.642900000000004</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.344300000000003</v>
+        <v>6.678999999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.203300000000004</v>
+        <v>-7.903000000000002</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.854500000000005</v>
+        <v>9.086300000000007</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.743200000000001</v>
+        <v>-7.744799999999998</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.118000000000002</v>
+        <v>5.227400000000004</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.707899999999998</v>
+        <v>-7.617499999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.465500000000004</v>
+        <v>6.141800000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.821399999999997</v>
+        <v>4.756199999999996</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.263099999999998</v>
+        <v>5.275199999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.214199999999996</v>
+        <v>-8.383999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.538199999999996</v>
+        <v>5.701199999999996</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.175299999999996</v>
+        <v>5.354899999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.0807</v>
+        <v>5.023000000000002</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.397000000000002</v>
+        <v>5.395900000000003</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.529999999999998</v>
+        <v>4.548799999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.003300000000001</v>
+        <v>-8.086900000000005</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.860299999999999</v>
+        <v>-7.766499999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
